--- a/biology/Microbiologie/Ciliofaurea/Ciliofaurea.xlsx
+++ b/biology/Microbiologie/Ciliofaurea/Ciliofaurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ciliofaureidae
 Ciliofaurea, unique représentant de la famille des Ciliofaureidae, est un genre de Ciliés de la classe des Karyorelictea et de l’ordre des Karyorelictida.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le nom Ciliofaurea est composé du préfixe cilio, en référence à l'embranchement des Ciliophora, et du suffixe -faurea, par allusion au genre Faurea, nom proposé originellement pour ce cilié par Dragesco en 1954, lequel a ensuite été préfixé cilio pour supprimer la confusion avec les genres :
 Faurea W.H. Harvey, 1847, une plante Proteacé,
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (24 octobre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (24 octobre 2023) :
 Ciliofaurea arenicola (Dragesco, 1954) Dragesco, 1960
 Ciliofaurea brunnea Dragesco, 1965
 Ciliofaurea longissima Dragesco, 1960
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>J. Dragesco, « Ciliés mésoposammiques littoraux. Systématique, morphologie, écologie », Trav. Stn biol. Roscoff (N. S.), vol. 122,‎ 1960, p. 1-356 (lire en ligne  [PDF]) (Version publiée de la thèse de l'auteur de 1958)
 J. Dragesco, Les ciliés mésoposammiques littoraux. Systématique, morphologie, écologie, 1958, 1-300 p.. Voir Dragesco (1960) pour la version publiée.</t>
